--- a/detailed_channel_info/Sh-H37_DROME.xlsx
+++ b/detailed_channel_info/Sh-H37_DROME.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -131,9 +131,6 @@
     <t>CURATOR:</t>
   </si>
   <si>
-    <t>vahidgh</t>
-  </si>
-  <si>
     <t>REFERENCES:</t>
   </si>
   <si>
@@ -285,6 +282,9 @@
   </si>
   <si>
     <t>https://chopen.herokuapp.com/api/graph_data/16?format=json</t>
+  </si>
+  <si>
+    <t>vahidgh, gopal_sarma</t>
   </si>
 </sst>
 </file>
@@ -665,7 +665,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="39.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -677,22 +679,22 @@
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -700,22 +702,22 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -746,22 +748,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -769,22 +771,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -792,22 +794,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="64" x14ac:dyDescent="0.2">
@@ -815,22 +817,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -838,22 +840,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -884,22 +886,22 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -907,22 +909,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -930,22 +932,22 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="240" x14ac:dyDescent="0.2">
@@ -953,22 +955,22 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -976,22 +978,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -999,22 +1001,22 @@
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1022,22 +1024,22 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -1045,22 +1047,22 @@
         <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -1068,22 +1070,22 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="32" x14ac:dyDescent="0.2">
@@ -1091,22 +1093,22 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1206,22 +1208,22 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="80" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="80" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
